--- a/habitaciones.xlsx
+++ b/habitaciones.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,19 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Marcelo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/habitaciones.xlsx
+++ b/habitaciones.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -448,6 +447,18 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Juan Perez</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>205</t>
         </is>
       </c>
     </row>
